--- a/data/trans_bre/Predimed_R3-Clase-trans_bre.xlsx
+++ b/data/trans_bre/Predimed_R3-Clase-trans_bre.xlsx
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.6301746765998956</v>
+        <v>0.6301746765998928</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0.03058031491768228</v>
+        <v>0.03058031491768214</v>
       </c>
     </row>
     <row r="5">
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.281794665244269</v>
+        <v>-4.127999810091823</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>-0.1841617233059586</v>
+        <v>-0.179277301340339</v>
       </c>
     </row>
     <row r="6">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.645751549964102</v>
+        <v>5.930367701550956</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>0.3093119741822927</v>
+        <v>0.3337288011386609</v>
       </c>
     </row>
     <row r="7">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>5.825807374104153</v>
+        <v>5.82580737410415</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.3273213447079459</v>
+        <v>0.3273213447079457</v>
       </c>
     </row>
     <row r="8">
@@ -612,10 +612,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1236084892709561</v>
+        <v>0.6807974001688943</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.001719267634630623</v>
+        <v>0.02966369539306333</v>
       </c>
     </row>
     <row r="9">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>10.86413936794772</v>
+        <v>11.05352384442678</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.7240668106622026</v>
+        <v>0.7358754505762958</v>
       </c>
     </row>
     <row r="10">
@@ -644,10 +644,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>2.685517619538097</v>
+        <v>2.685517619538094</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>0.1234564232569262</v>
+        <v>0.123456423256926</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.437776244262122</v>
+        <v>-4.354645795854973</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>-0.1791905624576025</v>
+        <v>-0.1839583849188439</v>
       </c>
     </row>
     <row r="12">
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>10.01909530070022</v>
+        <v>10.54727944622321</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>0.5183842710355705</v>
+        <v>0.5328491793332134</v>
       </c>
     </row>
     <row r="13">
@@ -690,10 +690,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.8782931267325933</v>
+        <v>0.8782931267325877</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.04460000606985954</v>
+        <v>0.04460000606985926</v>
       </c>
     </row>
     <row r="14">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-2.725007226919841</v>
+        <v>-2.417682651355451</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1260908450056452</v>
+        <v>-0.1127389431468183</v>
       </c>
     </row>
     <row r="15">
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.739301059662393</v>
+        <v>4.713265762288906</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.2649929014332333</v>
+        <v>0.2646226109221454</v>
       </c>
     </row>
     <row r="16">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>7.013612158636169</v>
+        <v>7.013612158636167</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>0.6770407085467944</v>
+        <v>0.677040708546794</v>
       </c>
     </row>
     <row r="17">
@@ -750,10 +750,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.304530299056463</v>
+        <v>3.392951866697071</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>0.2348179174343487</v>
+        <v>0.2578688868127484</v>
       </c>
     </row>
     <row r="18">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>10.48193880391518</v>
+        <v>10.80799899219779</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1.268354063219835</v>
+        <v>1.378638061901326</v>
       </c>
     </row>
     <row r="19">
@@ -782,10 +782,10 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>4.913413076074959</v>
+        <v>4.913413076074955</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>0.6899202339473779</v>
+        <v>0.6899202339473773</v>
       </c>
     </row>
     <row r="20">
@@ -796,10 +796,10 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-2.577698652839017</v>
+        <v>-2.598092523490753</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.2224165138258798</v>
+        <v>-0.1975871748608076</v>
       </c>
     </row>
     <row r="21">
@@ -810,10 +810,10 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>9.787795771305118</v>
+        <v>9.791778718536014</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>2.816696602985433</v>
+        <v>3.252360219971378</v>
       </c>
     </row>
     <row r="22">
@@ -828,10 +828,10 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>1.022447071269489</v>
+        <v>1.022447071269492</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>0.05823046807174648</v>
+        <v>0.05823046807174664</v>
       </c>
     </row>
     <row r="23">
@@ -842,10 +842,10 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.9630954146992908</v>
+        <v>-0.8248919484847425</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>-0.05085160231641079</v>
+        <v>-0.04470870450629692</v>
       </c>
     </row>
     <row r="24">
@@ -856,10 +856,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.77870523369631</v>
+        <v>2.870710882174574</v>
       </c>
       <c r="D24" s="6" t="n">
-        <v>0.1644336284675472</v>
+        <v>0.1726921575481277</v>
       </c>
     </row>
     <row r="25">
